--- a/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Inyección y drene de liquidez 2019 - Diaria.xlsx
+++ b/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Inyección y drene de liquidez 2019 - Diaria.xlsx
@@ -19,102 +19,6 @@
     <t>Serie</t>
   </si>
   <si>
-    <t>14.Nov.2019</t>
-  </si>
-  <si>
-    <t>15.Nov.2019</t>
-  </si>
-  <si>
-    <t>18.Nov.2019</t>
-  </si>
-  <si>
-    <t>19.Nov.2019</t>
-  </si>
-  <si>
-    <t>20.Nov.2019</t>
-  </si>
-  <si>
-    <t>21.Nov.2019</t>
-  </si>
-  <si>
-    <t>22.Nov.2019</t>
-  </si>
-  <si>
-    <t>25.Nov.2019</t>
-  </si>
-  <si>
-    <t>26.Nov.2019</t>
-  </si>
-  <si>
-    <t>27.Nov.2019</t>
-  </si>
-  <si>
-    <t>28.Nov.2019</t>
-  </si>
-  <si>
-    <t>29.Nov.2019</t>
-  </si>
-  <si>
-    <t>02.Dic.2019</t>
-  </si>
-  <si>
-    <t>03.Dic.2019</t>
-  </si>
-  <si>
-    <t>04.Dic.2019</t>
-  </si>
-  <si>
-    <t>05.Dic.2019</t>
-  </si>
-  <si>
-    <t>06.Dic.2019</t>
-  </si>
-  <si>
-    <t>09.Dic.2019</t>
-  </si>
-  <si>
-    <t>10.Dic.2019</t>
-  </si>
-  <si>
-    <t>11.Dic.2019</t>
-  </si>
-  <si>
-    <t>12.Dic.2019</t>
-  </si>
-  <si>
-    <t>13.Dic.2019</t>
-  </si>
-  <si>
-    <t>16.Dic.2019</t>
-  </si>
-  <si>
-    <t>17.Dic.2019</t>
-  </si>
-  <si>
-    <t>18.Dic.2019</t>
-  </si>
-  <si>
-    <t>19.Dic.2019</t>
-  </si>
-  <si>
-    <t>20.Dic.2019</t>
-  </si>
-  <si>
-    <t>23.Dic.2019</t>
-  </si>
-  <si>
-    <t>24.Dic.2019</t>
-  </si>
-  <si>
-    <t>26.Dic.2019</t>
-  </si>
-  <si>
-    <t>27.Dic.2019</t>
-  </si>
-  <si>
-    <t>30.Dic.2019</t>
-  </si>
-  <si>
     <t>REPO/FCIC/LCL</t>
   </si>
   <si>
@@ -143,6 +47,102 @@
   </si>
   <si>
     <t>Compra USD</t>
+  </si>
+  <si>
+    <t>14-11-2019</t>
+  </si>
+  <si>
+    <t>15-11-2019</t>
+  </si>
+  <si>
+    <t>18-11-2019</t>
+  </si>
+  <si>
+    <t>19-11-2019</t>
+  </si>
+  <si>
+    <t>20-11-2019</t>
+  </si>
+  <si>
+    <t>21-11-2019</t>
+  </si>
+  <si>
+    <t>22-11-2019</t>
+  </si>
+  <si>
+    <t>25-11-2019</t>
+  </si>
+  <si>
+    <t>26-11-2019</t>
+  </si>
+  <si>
+    <t>27-11-2019</t>
+  </si>
+  <si>
+    <t>28-11-2019</t>
+  </si>
+  <si>
+    <t>29-11-2019</t>
+  </si>
+  <si>
+    <t>02-12-2019</t>
+  </si>
+  <si>
+    <t>03-12-2019</t>
+  </si>
+  <si>
+    <t>04-12-2019</t>
+  </si>
+  <si>
+    <t>05-12-2019</t>
+  </si>
+  <si>
+    <t>06-12-2019</t>
+  </si>
+  <si>
+    <t>09-12-2019</t>
+  </si>
+  <si>
+    <t>10-12-2019</t>
+  </si>
+  <si>
+    <t>11-12-2019</t>
+  </si>
+  <si>
+    <t>12-12-2019</t>
+  </si>
+  <si>
+    <t>13-12-2019</t>
+  </si>
+  <si>
+    <t>16-12-2019</t>
+  </si>
+  <si>
+    <t>17-12-2019</t>
+  </si>
+  <si>
+    <t>18-12-2019</t>
+  </si>
+  <si>
+    <t>19-12-2019</t>
+  </si>
+  <si>
+    <t>20-12-2019</t>
+  </si>
+  <si>
+    <t>23-12-2019</t>
+  </si>
+  <si>
+    <t>24-12-2019</t>
+  </si>
+  <si>
+    <t>26-12-2019</t>
+  </si>
+  <si>
+    <t>27-12-2019</t>
+  </si>
+  <si>
+    <t>30-12-2019</t>
   </si>
 </sst>
 </file>
@@ -500,85 +500,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -596,24 +596,27 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -628,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>-1</v>
@@ -641,8 +644,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -657,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -676,323 +679,323 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-7</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-7</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-6</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-7</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-9</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>-3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>-6</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>-5</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>-7</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>-6</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>-1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>-7</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1013,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1061,8 +1064,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1080,7 +1083,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H17">
         <v>-10</v>
@@ -1096,11 +1099,11 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1121,7 +1124,7 @@
         <v>-10</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1131,8 +1134,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1153,21 +1156,21 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>29</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1188,115 +1191,115 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
       <c r="J20">
+        <v>-4</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-5</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>-2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
         <v>-6</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <v>-4</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>-4</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>-1</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-      <c r="H22">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <v>-2</v>
+      </c>
+      <c r="H23">
         <v>-5</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>-2</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>-1</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>-6</v>
-      </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1306,8 +1309,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>33</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1328,10 +1331,10 @@
         <v>-2</v>
       </c>
       <c r="H24">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1341,8 +1344,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>34</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1363,56 +1366,56 @@
         <v>-2</v>
       </c>
       <c r="H25">
+        <v>-3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>-2</v>
+      </c>
+      <c r="H26">
         <v>-4</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>1</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26">
-        <v>-2</v>
-      </c>
-      <c r="H26">
-        <v>-3</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1436,7 +1439,7 @@
         <v>-4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1446,8 +1449,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>37</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1468,7 +1471,7 @@
         <v>-2</v>
       </c>
       <c r="H28">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -1481,8 +1484,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>38</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1516,8 +1519,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1538,21 +1541,21 @@
         <v>-2</v>
       </c>
       <c r="H30">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>40</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1573,21 +1576,21 @@
         <v>-2</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I31">
         <v>-2</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>41</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1608,21 +1611,21 @@
         <v>-2</v>
       </c>
       <c r="H32">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I32">
         <v>-2</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>42</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1643,50 +1646,15 @@
         <v>-2</v>
       </c>
       <c r="H33">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I33">
         <v>-2</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>-2</v>
-      </c>
-      <c r="H34">
-        <v>-3</v>
-      </c>
-      <c r="I34">
-        <v>-2</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
         <v>0</v>
       </c>
     </row>
